--- a/APLS_e.xlsx
+++ b/APLS_e.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamal\Desktop\APLS\apls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="310">
   <si>
     <t>Name</t>
   </si>
@@ -940,6 +945,15 @@
   </si>
   <si>
     <t>21696/2020</t>
+  </si>
+  <si>
+    <t>mro</t>
+  </si>
+  <si>
+    <t>GNGN Kumari</t>
+  </si>
+  <si>
+    <t>15030/2020</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1309,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT92"/>
+  <dimension ref="A1:DT93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BJ92" sqref="BJ92"/>
+      <selection pane="bottomRight" activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8935,6 +8949,53 @@
         <v>28</v>
       </c>
     </row>
+    <row r="93" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>114</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="8">
+        <v>726175275</v>
+      </c>
+      <c r="F93">
+        <v>37</v>
+      </c>
+      <c r="G93" s="10">
+        <v>4</v>
+      </c>
+      <c r="H93" s="10">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P93" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>8</v>
+      </c>
+      <c r="AK93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB93" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
